--- a/diseno-etl/AnalisisETL.xlsx
+++ b/diseno-etl/AnalisisETL.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juan/Local/2023-10 loc/Inteligencia de Negocios/proyecto-2/diseno-etl/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D4A0B4EE-63D9-F841-91C3-9DF0E67EE7CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71849E11-6417-814E-BFAE-B1313C27B1C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Temas analíticosDoc" sheetId="7" r:id="rId1"/>
-    <sheet name="Diseño ETL" sheetId="8" r:id="rId2"/>
+    <sheet name="Diseño ETL" sheetId="8" r:id="rId1"/>
+    <sheet name="Temas analíticosDoc" sheetId="7" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -601,6 +601,39 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -625,40 +658,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3132,222 +3132,6 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:J13"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
-  <cols>
-    <col min="5" max="5" width="43.5" customWidth="1"/>
-    <col min="6" max="6" width="27.83203125" customWidth="1"/>
-    <col min="7" max="7" width="22.5" customWidth="1"/>
-    <col min="8" max="8" width="19.5" customWidth="1"/>
-    <col min="9" max="9" width="31.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="3:10" ht="16" thickBot="1">
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="3:10" ht="16" thickBot="1">
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="3:10" ht="93" customHeight="1">
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J3" s="1"/>
-    </row>
-    <row r="4" spans="3:10" ht="18" customHeight="1">
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="3:10" ht="16">
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="6" spans="3:10">
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="3:10" ht="15" customHeight="1">
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="H7" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="3:10" ht="15" customHeight="1">
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="3:10">
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="3:10" ht="15" customHeight="1">
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="H10" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="3:10" ht="15" customHeight="1">
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="3:10">
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="3:10">
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-    </row>
-  </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="E2:I2"/>
-    <mergeCell ref="E6:I6"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="F7:F8"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:T59"/>
   <sheetViews>
@@ -3925,4 +3709,220 @@
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="C1:J13"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
+  <cols>
+    <col min="5" max="5" width="43.5" customWidth="1"/>
+    <col min="6" max="6" width="27.83203125" customWidth="1"/>
+    <col min="7" max="7" width="22.5" customWidth="1"/>
+    <col min="8" max="8" width="19.5" customWidth="1"/>
+    <col min="9" max="9" width="31.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:10" ht="16" thickBot="1">
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="3:10" ht="16" thickBot="1">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="3:10" ht="93" customHeight="1">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="3:10" ht="18" customHeight="1">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="3:10" ht="16">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="3:10">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="3:10" ht="15" customHeight="1">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="3:10" ht="15" customHeight="1">
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="3:10">
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="3:10" ht="15" customHeight="1">
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="3:10" ht="15" customHeight="1">
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="3:10">
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="3:10">
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="E2:I2"/>
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="E9:I9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>